--- a/data/trans_orig/Q5412-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B016CF7-59C2-4E07-8ED3-F0B68C584EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05AE8C8B-0020-4FA7-AA62-0556DE920CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9A4EF536-12C0-4438-B813-F4AD816CE1F2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91B38CCB-083F-4C03-903F-2107AB8CEF1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="262">
   <si>
     <t>Población según si es capaz de arreglarse en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>3,93%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -107,28 +107,28 @@
     <t>96,07%</t>
   </si>
   <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>95,69%</t>
   </si>
   <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,13 +143,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,73%</t>
+    <t>4,99%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>11,18%</t>
+    <t>10,36%</t>
   </si>
   <si>
     <t>1,91%</t>
@@ -158,13 +158,13 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>6,03%</t>
+    <t>4,95%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>95,27%</t>
+    <t>95,01%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -173,13 +173,13 @@
     <t>96,7%</t>
   </si>
   <si>
-    <t>88,82%</t>
+    <t>89,64%</t>
   </si>
   <si>
     <t>98,09%</t>
   </si>
   <si>
-    <t>93,97%</t>
+    <t>95,05%</t>
   </si>
   <si>
     <t>99,46%</t>
@@ -212,55 +212,55 @@
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -272,73 +272,73 @@
     <t>6,96%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>90,48%</t>
   </si>
   <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
   </si>
   <si>
     <t>5,21%</t>
@@ -347,31 +347,31 @@
     <t>2,6%</t>
   </si>
   <si>
-    <t>9,21%</t>
+    <t>9,03%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>94,73%</t>
   </si>
   <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>90,79%</t>
+    <t>90,97%</t>
   </si>
   <si>
     <t>97,4%</t>
@@ -383,13 +383,13 @@
     <t>4,94%</t>
   </si>
   <si>
-    <t>30,7%</t>
+    <t>22,74%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>11,85%</t>
+    <t>11,62%</t>
   </si>
   <si>
     <t>91,36%</t>
@@ -398,67 +398,67 @@
     <t>95,06%</t>
   </si>
   <si>
-    <t>69,3%</t>
+    <t>77,26%</t>
   </si>
   <si>
     <t>97,75%</t>
   </si>
   <si>
-    <t>88,15%</t>
+    <t>88,38%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>89,66%</t>
   </si>
   <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
   </si>
   <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>Población según si es capaz de arreglarse en 2015 (Tasa respuesta: 19,52%)</t>
@@ -467,49 +467,55 @@
     <t>5,37%</t>
   </si>
   <si>
-    <t>8,17%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>91,83%</t>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>91,75%</t>
   </si>
   <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>1,47%</t>
@@ -518,289 +524,307 @@
     <t>0,46%</t>
   </si>
   <si>
+    <t>3,98%</t>
+  </si>
+  <si>
     <t>4,06%</t>
   </si>
   <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>97,99%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>6,43%</t>
+    <t>3,79%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>93,57%</t>
+    <t>96,21%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86739CF-19C0-49F0-AE55-9278025E5F80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417DDEB8-6B94-4FA6-A769-C1807DFB1C20}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1399,7 +1423,7 @@
         <v>550</v>
       </c>
       <c r="I5" s="7">
-        <v>562439</v>
+        <v>562438</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1450,7 +1474,7 @@
         <v>574</v>
       </c>
       <c r="I6" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1963,7 +1987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145B0F29-0885-471B-BAD3-8C339106A507}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E73426-C266-4724-8C2A-06BD2A8A871B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2714,7 +2738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D99E15-1745-431B-89BB-BA2A76F1B661}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B4B54E-F052-4B95-8E6A-3EF821CE7725}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2841,10 +2865,10 @@
         <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -2853,13 +2877,13 @@
         <v>45766</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -2868,13 +2892,13 @@
         <v>64780</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,16 +2910,16 @@
         <v>365</v>
       </c>
       <c r="D5" s="7">
-        <v>334888</v>
+        <v>334887</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>435</v>
@@ -2904,13 +2928,13 @@
         <v>508991</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>800</v>
@@ -2919,13 +2943,13 @@
         <v>843878</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,7 +2961,7 @@
         <v>386</v>
       </c>
       <c r="D6" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2993,13 +3017,13 @@
         <v>2828</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3008,13 +3032,13 @@
         <v>7640</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3023,13 +3047,13 @@
         <v>10468</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,13 +3068,13 @@
         <v>189704</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>152</v>
@@ -3059,13 +3083,13 @@
         <v>180434</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>346</v>
@@ -3074,13 +3098,13 @@
         <v>370138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,7 +3178,7 @@
         <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3169,7 +3193,7 @@
         <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3184,7 +3208,7 @@
         <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,7 +3226,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -3217,7 +3241,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3232,7 +3256,7 @@
         <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -3303,13 +3327,13 @@
         <v>21842</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -3318,13 +3342,13 @@
         <v>53406</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -3333,13 +3357,13 @@
         <v>75248</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3378,13 @@
         <v>566621</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>613</v>
@@ -3369,13 +3393,13 @@
         <v>723099</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>1213</v>
@@ -3384,13 +3408,13 @@
         <v>1289720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,7 +3489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554FE1E2-7C78-41FA-B37D-B0B81F19237E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3325A8-461E-4C04-B81F-ED74DAABD621}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3482,7 +3506,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3589,13 +3613,13 @@
         <v>22887</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>143</v>
@@ -3604,13 +3628,13 @@
         <v>77848</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>180</v>
@@ -3619,13 +3643,13 @@
         <v>100735</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3664,13 @@
         <v>264585</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H5" s="7">
         <v>875</v>
@@ -3655,13 +3679,13 @@
         <v>477286</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M5" s="7">
         <v>1266</v>
@@ -3670,13 +3694,13 @@
         <v>741871</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3768,13 @@
         <v>10057</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3759,13 +3783,13 @@
         <v>12631</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -3774,13 +3798,13 @@
         <v>22688</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3819,13 @@
         <v>284509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>505</v>
@@ -3810,13 +3834,13 @@
         <v>373791</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>917</v>
@@ -3825,13 +3849,13 @@
         <v>658300</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3923,13 @@
         <v>881</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3920,7 +3944,7 @@
         <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3929,13 +3953,13 @@
         <v>881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,10 +3974,10 @@
         <v>111105</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>42</v>
@@ -3968,7 +3992,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3980,10 +4004,10 @@
         <v>189350</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>42</v>
@@ -4054,13 +4078,13 @@
         <v>33826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>247</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
@@ -4069,13 +4093,13 @@
         <v>90479</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>220</v>
@@ -4084,13 +4108,13 @@
         <v>124305</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4129,13 @@
         <v>660198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
         <v>1532</v>
@@ -4120,13 +4144,13 @@
         <v>929323</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
         <v>2501</v>
@@ -4135,13 +4159,13 @@
         <v>1589520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5412-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05AE8C8B-0020-4FA7-AA62-0556DE920CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3463DFB0-825C-4BCC-AFE6-06B65EACA103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91B38CCB-083F-4C03-903F-2107AB8CEF1F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CEA63229-2C4E-4B57-980B-E0EAD885298F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="256">
   <si>
     <t>Población según si es capaz de arreglarse en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,733 +77,715 @@
     <t>3,93%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>2,88%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
   </si>
   <si>
     <t>96,21%</t>
@@ -1236,7 +1218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417DDEB8-6B94-4FA6-A769-C1807DFB1C20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42F0DBC-57D0-4E54-9C23-569CF0F698D5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1423,7 +1405,7 @@
         <v>550</v>
       </c>
       <c r="I5" s="7">
-        <v>562438</v>
+        <v>562439</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1474,7 +1456,7 @@
         <v>574</v>
       </c>
       <c r="I6" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1987,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E73426-C266-4724-8C2A-06BD2A8A871B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9851C5F-3AA2-4C9E-8819-29B7EDF6E02A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2612,7 +2594,7 @@
         <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2609,13 @@
         <v>524644</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>622</v>
@@ -2642,13 +2624,13 @@
         <v>663343</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>1095</v>
@@ -2657,13 +2639,13 @@
         <v>1187987</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,7 +2720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B4B54E-F052-4B95-8E6A-3EF821CE7725}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D6D633-BAF4-4DF9-8CE4-C99D0BA05CA6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2755,7 +2737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2862,13 +2844,13 @@
         <v>19014</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -2877,13 +2859,13 @@
         <v>45766</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -2892,13 +2874,13 @@
         <v>64780</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,16 +2892,16 @@
         <v>365</v>
       </c>
       <c r="D5" s="7">
-        <v>334887</v>
+        <v>334888</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>435</v>
@@ -2928,13 +2910,13 @@
         <v>508991</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>800</v>
@@ -2943,13 +2925,13 @@
         <v>843878</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,7 +2943,7 @@
         <v>386</v>
       </c>
       <c r="D6" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3017,13 +2999,13 @@
         <v>2828</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3032,13 +3014,13 @@
         <v>7640</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3047,13 +3029,13 @@
         <v>10468</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3050,13 @@
         <v>189704</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>152</v>
@@ -3083,13 +3065,13 @@
         <v>180434</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>346</v>
@@ -3098,13 +3080,13 @@
         <v>370138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,7 +3160,7 @@
         <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3193,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3208,7 +3190,7 @@
         <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,7 +3208,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -3241,7 +3223,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3256,7 +3238,7 @@
         <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -3327,13 +3309,13 @@
         <v>21842</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -3342,13 +3324,13 @@
         <v>53406</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -3357,13 +3339,13 @@
         <v>75248</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3360,13 @@
         <v>566621</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>613</v>
@@ -3393,13 +3375,13 @@
         <v>723099</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1213</v>
@@ -3408,13 +3390,13 @@
         <v>1289720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,7 +3471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3325A8-461E-4C04-B81F-ED74DAABD621}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404553F5-11F8-43EE-A651-C10ECAA8B7C6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3506,7 +3488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3613,13 +3595,13 @@
         <v>22887</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>143</v>
@@ -3628,13 +3610,13 @@
         <v>77848</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>180</v>
@@ -3643,13 +3625,13 @@
         <v>100735</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3646,13 @@
         <v>264585</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>875</v>
@@ -3679,13 +3661,13 @@
         <v>477286</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>1266</v>
@@ -3694,13 +3676,13 @@
         <v>741871</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3750,13 @@
         <v>10057</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3783,13 +3765,13 @@
         <v>12631</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -3798,13 +3780,13 @@
         <v>22688</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3801,13 @@
         <v>284509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>505</v>
@@ -3834,13 +3816,13 @@
         <v>373791</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>917</v>
@@ -3849,13 +3831,13 @@
         <v>658300</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3905,13 @@
         <v>881</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3944,7 +3926,7 @@
         <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3953,13 +3935,13 @@
         <v>881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,10 +3956,10 @@
         <v>111105</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>42</v>
@@ -3992,7 +3974,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -4004,10 +3986,10 @@
         <v>189350</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>42</v>
@@ -4078,13 +4060,13 @@
         <v>33826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
@@ -4093,13 +4075,13 @@
         <v>90479</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M13" s="7">
         <v>220</v>
@@ -4108,13 +4090,13 @@
         <v>124305</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4111,13 @@
         <v>660198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
         <v>1532</v>
@@ -4144,13 +4126,13 @@
         <v>929323</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>2501</v>
@@ -4159,13 +4141,13 @@
         <v>1589520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5412-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3463DFB0-825C-4BCC-AFE6-06B65EACA103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB1A6AFB-B225-4D38-BB8C-A3A83F2EB059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CEA63229-2C4E-4B57-980B-E0EAD885298F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3158BE3-3DAC-4881-B49F-36065122518C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="254">
   <si>
     <t>Población según si es capaz de arreglarse en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>3,93%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -107,28 +107,28 @@
     <t>96,07%</t>
   </si>
   <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>95,69%</t>
   </si>
   <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,28 +143,28 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,78%</t>
+    <t>4,73%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>11,06%</t>
+    <t>11,18%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>94,22%</t>
+    <t>95,27%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -173,16 +173,16 @@
     <t>96,7%</t>
   </si>
   <si>
-    <t>88,94%</t>
+    <t>88,82%</t>
   </si>
   <si>
     <t>98,09%</t>
   </si>
   <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -212,601 +212,595 @@
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>93,57%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42F0DBC-57D0-4E54-9C23-569CF0F698D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1F43F1-BBC0-411F-8515-C3AF210BE0FD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1969,7 +1963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9851C5F-3AA2-4C9E-8819-29B7EDF6E02A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7156A5F7-434B-44EF-8513-354CE57D2C0B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2594,7 +2588,7 @@
         <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2603,13 @@
         <v>524644</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>622</v>
@@ -2624,13 +2618,13 @@
         <v>663343</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>1095</v>
@@ -2639,13 +2633,13 @@
         <v>1187987</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,7 +2714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D6D633-BAF4-4DF9-8CE4-C99D0BA05CA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42937B48-0055-431B-A40A-C5909F6D5E9B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2737,7 +2731,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2844,13 +2838,13 @@
         <v>19014</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -2859,13 +2853,13 @@
         <v>45766</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -2874,13 +2868,13 @@
         <v>64780</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2889,13 @@
         <v>334888</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="H5" s="7">
         <v>435</v>
@@ -3005,7 +2999,7 @@
         <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3014,13 +3008,13 @@
         <v>7640</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3029,7 +3023,7 @@
         <v>10468</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>163</v>
@@ -3053,10 +3047,10 @@
         <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>152</v>
@@ -3065,13 +3059,13 @@
         <v>180434</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>346</v>
@@ -3080,7 +3074,7 @@
         <v>370138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>171</v>
@@ -3471,7 +3465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404553F5-11F8-43EE-A651-C10ECAA8B7C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B0DC74-9A93-4609-8D09-D20A7AAAB43E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3911,7 +3905,7 @@
         <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3926,7 +3920,7 @@
         <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3941,7 +3935,7 @@
         <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,10 +3950,10 @@
         <v>111105</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>42</v>
@@ -3974,7 +3968,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3986,10 +3980,10 @@
         <v>189350</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>42</v>
@@ -4060,13 +4054,13 @@
         <v>33826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
@@ -4075,13 +4069,13 @@
         <v>90479</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M13" s="7">
         <v>220</v>
@@ -4090,13 +4084,13 @@
         <v>124305</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4105,13 @@
         <v>660198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>1532</v>
@@ -4126,13 +4120,13 @@
         <v>929323</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>2501</v>
@@ -4141,13 +4135,13 @@
         <v>1589520</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5412-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB1A6AFB-B225-4D38-BB8C-A3A83F2EB059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F76DE47D-9DE5-4E3F-A14C-0A5509B23293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3158BE3-3DAC-4881-B49F-36065122518C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4D9A94F1-73AB-4DDB-84C7-1E333EB33E44}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="258">
   <si>
     <t>Población según si es capaz de arreglarse en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -635,172 +635,184 @@
     <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
   </si>
   <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1F43F1-BBC0-411F-8515-C3AF210BE0FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B3B22D-0DD2-42A4-A14B-5652FC9C3EE6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1399,7 +1411,7 @@
         <v>550</v>
       </c>
       <c r="I5" s="7">
-        <v>562439</v>
+        <v>562438</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1450,7 +1462,7 @@
         <v>574</v>
       </c>
       <c r="I6" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1963,7 +1975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7156A5F7-434B-44EF-8513-354CE57D2C0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26F5C24-EFBF-4E5A-ADB1-A23E26167B90}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2714,7 +2726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42937B48-0055-431B-A40A-C5909F6D5E9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C97753-898C-40D0-9FFA-F1DAAF9C4A21}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2886,7 +2898,7 @@
         <v>365</v>
       </c>
       <c r="D5" s="7">
-        <v>334888</v>
+        <v>334887</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>149</v>
@@ -2937,7 +2949,7 @@
         <v>386</v>
       </c>
       <c r="D6" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3465,7 +3477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B0DC74-9A93-4609-8D09-D20A7AAAB43E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E94B07-7C7E-43D5-B76F-DCEDA37074D1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3586,7 +3598,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>22887</v>
+        <v>21456</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>198</v>
@@ -3601,7 +3613,7 @@
         <v>143</v>
       </c>
       <c r="I4" s="7">
-        <v>77848</v>
+        <v>70441</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>201</v>
@@ -3616,16 +3628,16 @@
         <v>180</v>
       </c>
       <c r="N4" s="7">
-        <v>100735</v>
+        <v>91897</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,46 +3649,46 @@
         <v>391</v>
       </c>
       <c r="D5" s="7">
-        <v>264585</v>
+        <v>247788</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>875</v>
       </c>
       <c r="I5" s="7">
-        <v>477286</v>
+        <v>429941</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>1266</v>
       </c>
       <c r="N5" s="7">
-        <v>741871</v>
+        <v>677728</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,7 +3700,7 @@
         <v>428</v>
       </c>
       <c r="D6" s="7">
-        <v>287472</v>
+        <v>269244</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3703,7 +3715,7 @@
         <v>1018</v>
       </c>
       <c r="I6" s="7">
-        <v>555134</v>
+        <v>500382</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3718,7 +3730,7 @@
         <v>1446</v>
       </c>
       <c r="N6" s="7">
-        <v>842606</v>
+        <v>769625</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3741,46 +3753,46 @@
         <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>10057</v>
+        <v>9273</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>12631</v>
+        <v>11341</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>22688</v>
+        <v>20614</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,46 +3804,46 @@
         <v>412</v>
       </c>
       <c r="D8" s="7">
-        <v>284509</v>
+        <v>263984</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>505</v>
       </c>
       <c r="I8" s="7">
-        <v>373791</v>
+        <v>444398</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>917</v>
       </c>
       <c r="N8" s="7">
-        <v>658300</v>
+        <v>708382</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,7 +3855,7 @@
         <v>426</v>
       </c>
       <c r="D9" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3858,7 +3870,7 @@
         <v>529</v>
       </c>
       <c r="I9" s="7">
-        <v>386422</v>
+        <v>455739</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3873,7 +3885,7 @@
         <v>955</v>
       </c>
       <c r="N9" s="7">
-        <v>680988</v>
+        <v>728996</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3896,16 +3908,16 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>881</v>
+        <v>775</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3926,16 +3938,16 @@
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>881</v>
+        <v>775</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,7 +3959,7 @@
         <v>166</v>
       </c>
       <c r="D11" s="7">
-        <v>111105</v>
+        <v>104211</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>236</v>
@@ -3962,7 +3974,7 @@
         <v>152</v>
       </c>
       <c r="I11" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>42</v>
@@ -3977,13 +3989,13 @@
         <v>318</v>
       </c>
       <c r="N11" s="7">
-        <v>189350</v>
+        <v>175536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>42</v>
@@ -3998,7 +4010,7 @@
         <v>168</v>
       </c>
       <c r="D12" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4013,7 +4025,7 @@
         <v>152</v>
       </c>
       <c r="I12" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4028,7 +4040,7 @@
         <v>320</v>
       </c>
       <c r="N12" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4051,46 +4063,46 @@
         <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>33826</v>
+        <v>31505</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
       </c>
       <c r="I13" s="7">
-        <v>90479</v>
+        <v>81781</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>220</v>
       </c>
       <c r="N13" s="7">
-        <v>124305</v>
+        <v>113286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,46 +4114,46 @@
         <v>969</v>
       </c>
       <c r="D14" s="7">
-        <v>660198</v>
+        <v>615982</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>1532</v>
       </c>
       <c r="I14" s="7">
-        <v>929323</v>
+        <v>945665</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>2501</v>
       </c>
       <c r="N14" s="7">
-        <v>1589520</v>
+        <v>1561646</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,7 +4165,7 @@
         <v>1022</v>
       </c>
       <c r="D15" s="7">
-        <v>694024</v>
+        <v>647487</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4168,7 +4180,7 @@
         <v>1699</v>
       </c>
       <c r="I15" s="7">
-        <v>1019802</v>
+        <v>1027446</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4183,7 +4195,7 @@
         <v>2721</v>
       </c>
       <c r="N15" s="7">
-        <v>1713825</v>
+        <v>1674932</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
